--- a/medicine/Psychotrope/Weizenbock/Weizenbock.xlsx
+++ b/medicine/Psychotrope/Weizenbock/Weizenbock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Weizenbock est un type de bière de fermentation haute originaire d'Allemagne. Comme son nom l'indique, il s'agit d'une bière de type weizenbier, mais bien plus forte et plus ambrée car brassée selon le style « bock » avec une densité primitive de moût plus importante que pour les versions courantes. Elle est également plus épicée vu qu'une sorte particulière de levure est utilisée.
 La Weizendoppelbock (double-bock de froment) est encore plus forte (7 % à 9 % d'alcool) et plus foncée que la Weizenbock. Elle a un goût prononcé de malt avec peu d'amertume. Très effervescente, elle a une mousse imposante et épaisse.
